--- a/Data/PrincipalloginEmployeesmodule.xlsx
+++ b/Data/PrincipalloginEmployeesmodule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwinraj\Desktop\employees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\EdwinAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,11 +454,14 @@
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
